--- a/bigsurvey/stub-files/duplicates_fixed.xlsx
+++ b/bigsurvey/stub-files/duplicates_fixed.xlsx
@@ -80,7 +80,7 @@
     <t>CustomerZip</t>
   </si>
   <si>
-    <t>Residental</t>
+    <t>Residential</t>
   </si>
   <si>
     <t>W. 24TH ST.</t>
@@ -210,20 +210,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,8 +242,8 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U10" activeCellId="0" sqref="U10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -322,239 +314,239 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>110000200</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>19630204</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <v>70084</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2" t="n">
         <v>5321302</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>4753</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="2" t="n">
         <v>700846316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>110000301</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>20110623</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="n">
         <v>2154</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <v>70084</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="2" t="n">
         <v>1515696</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>185087</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="2" t="n">
         <v>581086034</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>110000301</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>20110623</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="n">
         <v>2155</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <v>70084</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="2" t="n">
         <v>1515696</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <v>332339</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="2" t="n">
         <v>581086034</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>110000301</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>20110623</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="n">
         <v>2156</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="2" t="n">
         <v>70084</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="2" t="n">
         <v>5321292</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <v>26381</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="2" t="n">
         <v>700846328</v>
       </c>
     </row>
